--- a/INTLINE/data/193/ABS/5368033.xlsx
+++ b/INTLINE/data/193/ABS/5368033.xlsx
@@ -12,68 +12,68 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A1829644W">Data1!$B$1:$B$10,Data1!$B$11:$B$419</definedName>
-    <definedName name="A1829644W_Data">Data1!$B$11:$B$419</definedName>
-    <definedName name="A1829644W_Latest">Data1!$B$419</definedName>
-    <definedName name="A1829645X">Data1!$C$1:$C$10,Data1!$C$11:$C$419</definedName>
-    <definedName name="A1829645X_Data">Data1!$C$11:$C$419</definedName>
-    <definedName name="A1829645X_Latest">Data1!$C$419</definedName>
-    <definedName name="A1829646A">Data1!$D$1:$D$10,Data1!$D$11:$D$419</definedName>
-    <definedName name="A1829646A_Data">Data1!$D$11:$D$419</definedName>
-    <definedName name="A1829646A_Latest">Data1!$D$419</definedName>
-    <definedName name="A1829647C">Data1!$E$1:$E$10,Data1!$E$11:$E$419</definedName>
-    <definedName name="A1829647C_Data">Data1!$E$11:$E$419</definedName>
-    <definedName name="A1829647C_Latest">Data1!$E$419</definedName>
-    <definedName name="A1829648F">Data1!$F$1:$F$10,Data1!$F$11:$F$419</definedName>
-    <definedName name="A1829648F_Data">Data1!$F$11:$F$419</definedName>
-    <definedName name="A1829648F_Latest">Data1!$F$419</definedName>
-    <definedName name="A1829649J">Data1!$G$1:$G$10,Data1!$G$11:$G$419</definedName>
-    <definedName name="A1829649J_Data">Data1!$G$11:$G$419</definedName>
-    <definedName name="A1829649J_Latest">Data1!$G$419</definedName>
-    <definedName name="A1829650T">Data1!$H$1:$H$10,Data1!$H$11:$H$419</definedName>
-    <definedName name="A1829650T_Data">Data1!$H$11:$H$419</definedName>
-    <definedName name="A1829650T_Latest">Data1!$H$419</definedName>
-    <definedName name="A1829651V">Data1!$I$1:$I$10,Data1!$I$11:$I$419</definedName>
-    <definedName name="A1829651V_Data">Data1!$I$11:$I$419</definedName>
-    <definedName name="A1829651V_Latest">Data1!$I$419</definedName>
-    <definedName name="A1829652W">Data1!$J$1:$J$10,Data1!$J$11:$J$419</definedName>
-    <definedName name="A1829652W_Data">Data1!$J$11:$J$419</definedName>
-    <definedName name="A1829652W_Latest">Data1!$J$419</definedName>
-    <definedName name="A1829653X">Data1!$K$1:$K$10,Data1!$K$11:$K$419</definedName>
-    <definedName name="A1829653X_Data">Data1!$K$11:$K$419</definedName>
-    <definedName name="A1829653X_Latest">Data1!$K$419</definedName>
-    <definedName name="A1829654A">Data1!$L$1:$L$10,Data1!$L$11:$L$419</definedName>
-    <definedName name="A1829654A_Data">Data1!$L$11:$L$419</definedName>
-    <definedName name="A1829654A_Latest">Data1!$L$419</definedName>
-    <definedName name="A1829655C">Data1!$M$1:$M$10,Data1!$M$11:$M$419</definedName>
-    <definedName name="A1829655C_Data">Data1!$M$11:$M$419</definedName>
-    <definedName name="A1829655C_Latest">Data1!$M$419</definedName>
-    <definedName name="A1829656F">Data1!$N$1:$N$10,Data1!$N$11:$N$419</definedName>
-    <definedName name="A1829656F_Data">Data1!$N$11:$N$419</definedName>
-    <definedName name="A1829656F_Latest">Data1!$N$419</definedName>
-    <definedName name="A1829657J">Data1!$O$1:$O$10,Data1!$O$11:$O$419</definedName>
-    <definedName name="A1829657J_Data">Data1!$O$11:$O$419</definedName>
-    <definedName name="A1829657J_Latest">Data1!$O$419</definedName>
-    <definedName name="A1829658K">Data1!$P$1:$P$10,Data1!$P$11:$P$419</definedName>
-    <definedName name="A1829658K_Data">Data1!$P$11:$P$419</definedName>
-    <definedName name="A1829658K_Latest">Data1!$P$419</definedName>
-    <definedName name="A1829659L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$419</definedName>
-    <definedName name="A1829659L_Data">Data1!$Q$11:$Q$419</definedName>
-    <definedName name="A1829659L_Latest">Data1!$Q$419</definedName>
-    <definedName name="A1829660W">Data1!$R$1:$R$10,Data1!$R$11:$R$419</definedName>
-    <definedName name="A1829660W_Data">Data1!$R$11:$R$419</definedName>
-    <definedName name="A1829660W_Latest">Data1!$R$419</definedName>
-    <definedName name="A1829661X">Data1!$S$1:$S$10,Data1!$S$11:$S$419</definedName>
-    <definedName name="A1829661X_Data">Data1!$S$11:$S$419</definedName>
-    <definedName name="A1829661X_Latest">Data1!$S$419</definedName>
-    <definedName name="A1829662A">Data1!$T$1:$T$10,Data1!$T$11:$T$419</definedName>
-    <definedName name="A1829662A_Data">Data1!$T$11:$T$419</definedName>
-    <definedName name="A1829662A_Latest">Data1!$T$419</definedName>
-    <definedName name="A1829664F">Data1!$U$1:$U$10,Data1!$U$11:$U$419</definedName>
-    <definedName name="A1829664F_Data">Data1!$U$11:$U$419</definedName>
-    <definedName name="A1829664F_Latest">Data1!$U$419</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$419</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$419</definedName>
+    <definedName name="A1829644W">Data1!$B$1:$B$10,Data1!$B$11:$B$422</definedName>
+    <definedName name="A1829644W_Data">Data1!$B$11:$B$422</definedName>
+    <definedName name="A1829644W_Latest">Data1!$B$422</definedName>
+    <definedName name="A1829645X">Data1!$C$1:$C$10,Data1!$C$11:$C$422</definedName>
+    <definedName name="A1829645X_Data">Data1!$C$11:$C$422</definedName>
+    <definedName name="A1829645X_Latest">Data1!$C$422</definedName>
+    <definedName name="A1829646A">Data1!$D$1:$D$10,Data1!$D$11:$D$422</definedName>
+    <definedName name="A1829646A_Data">Data1!$D$11:$D$422</definedName>
+    <definedName name="A1829646A_Latest">Data1!$D$422</definedName>
+    <definedName name="A1829647C">Data1!$E$1:$E$10,Data1!$E$11:$E$422</definedName>
+    <definedName name="A1829647C_Data">Data1!$E$11:$E$422</definedName>
+    <definedName name="A1829647C_Latest">Data1!$E$422</definedName>
+    <definedName name="A1829648F">Data1!$F$1:$F$10,Data1!$F$11:$F$422</definedName>
+    <definedName name="A1829648F_Data">Data1!$F$11:$F$422</definedName>
+    <definedName name="A1829648F_Latest">Data1!$F$422</definedName>
+    <definedName name="A1829649J">Data1!$G$1:$G$10,Data1!$G$11:$G$422</definedName>
+    <definedName name="A1829649J_Data">Data1!$G$11:$G$422</definedName>
+    <definedName name="A1829649J_Latest">Data1!$G$422</definedName>
+    <definedName name="A1829650T">Data1!$H$1:$H$10,Data1!$H$11:$H$422</definedName>
+    <definedName name="A1829650T_Data">Data1!$H$11:$H$422</definedName>
+    <definedName name="A1829650T_Latest">Data1!$H$422</definedName>
+    <definedName name="A1829651V">Data1!$I$1:$I$10,Data1!$I$11:$I$422</definedName>
+    <definedName name="A1829651V_Data">Data1!$I$11:$I$422</definedName>
+    <definedName name="A1829651V_Latest">Data1!$I$422</definedName>
+    <definedName name="A1829652W">Data1!$J$1:$J$10,Data1!$J$11:$J$422</definedName>
+    <definedName name="A1829652W_Data">Data1!$J$11:$J$422</definedName>
+    <definedName name="A1829652W_Latest">Data1!$J$422</definedName>
+    <definedName name="A1829653X">Data1!$K$1:$K$10,Data1!$K$11:$K$422</definedName>
+    <definedName name="A1829653X_Data">Data1!$K$11:$K$422</definedName>
+    <definedName name="A1829653X_Latest">Data1!$K$422</definedName>
+    <definedName name="A1829654A">Data1!$L$1:$L$10,Data1!$L$11:$L$422</definedName>
+    <definedName name="A1829654A_Data">Data1!$L$11:$L$422</definedName>
+    <definedName name="A1829654A_Latest">Data1!$L$422</definedName>
+    <definedName name="A1829655C">Data1!$M$1:$M$10,Data1!$M$11:$M$422</definedName>
+    <definedName name="A1829655C_Data">Data1!$M$11:$M$422</definedName>
+    <definedName name="A1829655C_Latest">Data1!$M$422</definedName>
+    <definedName name="A1829656F">Data1!$N$1:$N$10,Data1!$N$11:$N$422</definedName>
+    <definedName name="A1829656F_Data">Data1!$N$11:$N$422</definedName>
+    <definedName name="A1829656F_Latest">Data1!$N$422</definedName>
+    <definedName name="A1829657J">Data1!$O$1:$O$10,Data1!$O$11:$O$422</definedName>
+    <definedName name="A1829657J_Data">Data1!$O$11:$O$422</definedName>
+    <definedName name="A1829657J_Latest">Data1!$O$422</definedName>
+    <definedName name="A1829658K">Data1!$P$1:$P$10,Data1!$P$11:$P$422</definedName>
+    <definedName name="A1829658K_Data">Data1!$P$11:$P$422</definedName>
+    <definedName name="A1829658K_Latest">Data1!$P$422</definedName>
+    <definedName name="A1829659L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$422</definedName>
+    <definedName name="A1829659L_Data">Data1!$Q$11:$Q$422</definedName>
+    <definedName name="A1829659L_Latest">Data1!$Q$422</definedName>
+    <definedName name="A1829660W">Data1!$R$1:$R$10,Data1!$R$11:$R$422</definedName>
+    <definedName name="A1829660W_Data">Data1!$R$11:$R$422</definedName>
+    <definedName name="A1829660W_Latest">Data1!$R$422</definedName>
+    <definedName name="A1829661X">Data1!$S$1:$S$10,Data1!$S$11:$S$422</definedName>
+    <definedName name="A1829661X_Data">Data1!$S$11:$S$422</definedName>
+    <definedName name="A1829661X_Latest">Data1!$S$422</definedName>
+    <definedName name="A1829662A">Data1!$T$1:$T$10,Data1!$T$11:$T$422</definedName>
+    <definedName name="A1829662A_Data">Data1!$T$11:$T$422</definedName>
+    <definedName name="A1829662A_Latest">Data1!$T$422</definedName>
+    <definedName name="A1829664F">Data1!$U$1:$U$10,Data1!$U$11:$U$422</definedName>
+    <definedName name="A1829664F_Data">Data1!$U$11:$U$422</definedName>
+    <definedName name="A1829664F_Latest">Data1!$U$422</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$422</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$422</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1061,10 +1061,10 @@
         <v>32143</v>
       </c>
       <c r="G12" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
@@ -1093,10 +1093,10 @@
         <v>32143</v>
       </c>
       <c r="G13" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -1125,10 +1125,10 @@
         <v>32143</v>
       </c>
       <c r="G14" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -1157,10 +1157,10 @@
         <v>32143</v>
       </c>
       <c r="G15" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -1189,10 +1189,10 @@
         <v>32143</v>
       </c>
       <c r="G16" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -1221,10 +1221,10 @@
         <v>32143</v>
       </c>
       <c r="G17" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -1253,10 +1253,10 @@
         <v>32143</v>
       </c>
       <c r="G18" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>29</v>
@@ -1285,10 +1285,10 @@
         <v>32143</v>
       </c>
       <c r="G19" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>29</v>
@@ -1317,10 +1317,10 @@
         <v>32143</v>
       </c>
       <c r="G20" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>29</v>
@@ -1349,10 +1349,10 @@
         <v>32143</v>
       </c>
       <c r="G21" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>29</v>
@@ -1381,10 +1381,10 @@
         <v>32143</v>
       </c>
       <c r="G22" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>29</v>
@@ -1413,10 +1413,10 @@
         <v>32143</v>
       </c>
       <c r="G23" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>29</v>
@@ -1445,10 +1445,10 @@
         <v>32143</v>
       </c>
       <c r="G24" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>29</v>
@@ -1477,10 +1477,10 @@
         <v>32143</v>
       </c>
       <c r="G25" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>29</v>
@@ -1509,10 +1509,10 @@
         <v>32143</v>
       </c>
       <c r="G26" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>29</v>
@@ -1541,10 +1541,10 @@
         <v>32143</v>
       </c>
       <c r="G27" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H27" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>29</v>
@@ -1573,10 +1573,10 @@
         <v>32143</v>
       </c>
       <c r="G28" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H28" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>29</v>
@@ -1605,10 +1605,10 @@
         <v>32143</v>
       </c>
       <c r="G29" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H29" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>29</v>
@@ -1637,10 +1637,10 @@
         <v>32143</v>
       </c>
       <c r="G30" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H30" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>29</v>
@@ -1669,10 +1669,10 @@
         <v>32143</v>
       </c>
       <c r="G31" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H31" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>29</v>
@@ -1727,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U419"/>
+  <dimension ref="A1:U422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2198,64 +2198,64 @@
         <v>26</v>
       </c>
       <c r="B8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="Q8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="R8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="S8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="T8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="U8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -2263,64 +2263,64 @@
         <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="R9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="S9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="T9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -28671,13 +28671,13 @@
         <v>6053</v>
       </c>
       <c r="H415" s="8">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I415" s="8">
         <v>301</v>
       </c>
       <c r="J415" s="8">
-        <v>1898</v>
+        <v>1910</v>
       </c>
       <c r="K415" s="8">
         <v>5653</v>
@@ -28686,7 +28686,7 @@
         <v>1694</v>
       </c>
       <c r="M415" s="8">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="N415" s="8">
         <v>1545</v>
@@ -28710,7 +28710,7 @@
         <v>522</v>
       </c>
       <c r="U415" s="8">
-        <v>28159</v>
+        <v>28175</v>
       </c>
     </row>
     <row r="416" spans="1:21" x14ac:dyDescent="0.2">
@@ -28733,22 +28733,22 @@
         <v>199</v>
       </c>
       <c r="G416" s="8">
-        <v>5713</v>
+        <v>5710</v>
       </c>
       <c r="H416" s="8">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="I416" s="8">
         <v>505</v>
       </c>
       <c r="J416" s="8">
-        <v>2192</v>
+        <v>2231</v>
       </c>
       <c r="K416" s="8">
-        <v>5361</v>
+        <v>5355</v>
       </c>
       <c r="L416" s="8">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="M416" s="8">
         <v>1396</v>
@@ -28769,13 +28769,13 @@
         <v>2215</v>
       </c>
       <c r="S416" s="8">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="T416" s="8">
         <v>982</v>
       </c>
       <c r="U416" s="8">
-        <v>27874</v>
+        <v>27910</v>
       </c>
     </row>
     <row r="417" spans="1:21" x14ac:dyDescent="0.2">
@@ -28798,28 +28798,28 @@
         <v>515</v>
       </c>
       <c r="G417" s="8">
-        <v>6839</v>
+        <v>6837</v>
       </c>
       <c r="H417" s="8">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I417" s="8">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J417" s="8">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="K417" s="8">
-        <v>6280</v>
+        <v>6279</v>
       </c>
       <c r="L417" s="8">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="M417" s="8">
         <v>1616</v>
       </c>
       <c r="N417" s="8">
-        <v>1314</v>
+        <v>1628</v>
       </c>
       <c r="O417" s="8">
         <v>291</v>
@@ -28828,7 +28828,7 @@
         <v>1229</v>
       </c>
       <c r="Q417" s="8">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="R417" s="8">
         <v>2490</v>
@@ -28840,7 +28840,7 @@
         <v>766</v>
       </c>
       <c r="U417" s="8">
-        <v>31896</v>
+        <v>32199</v>
       </c>
     </row>
     <row r="418" spans="1:21" x14ac:dyDescent="0.2">
@@ -28863,49 +28863,49 @@
         <v>212</v>
       </c>
       <c r="G418" s="8">
-        <v>7025</v>
+        <v>7019</v>
       </c>
       <c r="H418" s="8">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="I418" s="8">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="J418" s="8">
-        <v>2109</v>
+        <v>2085</v>
       </c>
       <c r="K418" s="8">
-        <v>6282</v>
+        <v>6284</v>
       </c>
       <c r="L418" s="8">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="M418" s="8">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="N418" s="8">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="O418" s="8">
         <v>281</v>
       </c>
       <c r="P418" s="8">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="Q418" s="8">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="R418" s="8">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="S418" s="8">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="T418" s="8">
         <v>803</v>
       </c>
       <c r="U418" s="8">
-        <v>32382</v>
+        <v>32361</v>
       </c>
     </row>
     <row r="419" spans="1:21" x14ac:dyDescent="0.2">
@@ -28925,52 +28925,247 @@
         <v>1171</v>
       </c>
       <c r="F419" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G419" s="8">
-        <v>7028</v>
+        <v>7011</v>
       </c>
       <c r="H419" s="8">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="I419" s="8">
-        <v>711</v>
+        <v>744</v>
       </c>
       <c r="J419" s="8">
-        <v>2041</v>
+        <v>2072</v>
       </c>
       <c r="K419" s="8">
-        <v>5350</v>
+        <v>5338</v>
       </c>
       <c r="L419" s="8">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="M419" s="8">
         <v>1551</v>
       </c>
       <c r="N419" s="8">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O419" s="8">
         <v>295</v>
       </c>
       <c r="P419" s="8">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="Q419" s="8">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R419" s="8">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="S419" s="8">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="T419" s="8">
         <v>754</v>
       </c>
       <c r="U419" s="8">
-        <v>29312</v>
+        <v>29341</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A420" s="9">
+        <v>44593</v>
+      </c>
+      <c r="B420" s="8">
+        <v>79</v>
+      </c>
+      <c r="C420" s="8">
+        <v>200</v>
+      </c>
+      <c r="D420" s="8">
+        <v>132</v>
+      </c>
+      <c r="E420" s="8">
+        <v>1183</v>
+      </c>
+      <c r="F420" s="8">
+        <v>113</v>
+      </c>
+      <c r="G420" s="8">
+        <v>7963</v>
+      </c>
+      <c r="H420" s="8">
+        <v>627</v>
+      </c>
+      <c r="I420" s="8">
+        <v>750</v>
+      </c>
+      <c r="J420" s="8">
+        <v>2267</v>
+      </c>
+      <c r="K420" s="8">
+        <v>5035</v>
+      </c>
+      <c r="L420" s="8">
+        <v>1728</v>
+      </c>
+      <c r="M420" s="8">
+        <v>2346</v>
+      </c>
+      <c r="N420" s="8">
+        <v>1444</v>
+      </c>
+      <c r="O420" s="8">
+        <v>264</v>
+      </c>
+      <c r="P420" s="8">
+        <v>1119</v>
+      </c>
+      <c r="Q420" s="8">
+        <v>1415</v>
+      </c>
+      <c r="R420" s="8">
+        <v>2556</v>
+      </c>
+      <c r="S420" s="8">
+        <v>2036</v>
+      </c>
+      <c r="T420" s="8">
+        <v>402</v>
+      </c>
+      <c r="U420" s="8">
+        <v>31659</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A421" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B421" s="8">
+        <v>96</v>
+      </c>
+      <c r="C421" s="8">
+        <v>206</v>
+      </c>
+      <c r="D421" s="8">
+        <v>148</v>
+      </c>
+      <c r="E421" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F421" s="8">
+        <v>184</v>
+      </c>
+      <c r="G421" s="8">
+        <v>8222</v>
+      </c>
+      <c r="H421" s="8">
+        <v>1035</v>
+      </c>
+      <c r="I421" s="8">
+        <v>1007</v>
+      </c>
+      <c r="J421" s="8">
+        <v>3018</v>
+      </c>
+      <c r="K421" s="8">
+        <v>6030</v>
+      </c>
+      <c r="L421" s="8">
+        <v>1869</v>
+      </c>
+      <c r="M421" s="8">
+        <v>2494</v>
+      </c>
+      <c r="N421" s="8">
+        <v>1782</v>
+      </c>
+      <c r="O421" s="8">
+        <v>293</v>
+      </c>
+      <c r="P421" s="8">
+        <v>1333</v>
+      </c>
+      <c r="Q421" s="8">
+        <v>1484</v>
+      </c>
+      <c r="R421" s="8">
+        <v>2225</v>
+      </c>
+      <c r="S421" s="8">
+        <v>1870</v>
+      </c>
+      <c r="T421" s="8">
+        <v>495</v>
+      </c>
+      <c r="U421" s="8">
+        <v>35189</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A422" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B422" s="8">
+        <v>84</v>
+      </c>
+      <c r="C422" s="8">
+        <v>165</v>
+      </c>
+      <c r="D422" s="8">
+        <v>113</v>
+      </c>
+      <c r="E422" s="8">
+        <v>1201</v>
+      </c>
+      <c r="F422" s="8">
+        <v>127</v>
+      </c>
+      <c r="G422" s="8">
+        <v>6947</v>
+      </c>
+      <c r="H422" s="8">
+        <v>980</v>
+      </c>
+      <c r="I422" s="8">
+        <v>510</v>
+      </c>
+      <c r="J422" s="8">
+        <v>3178</v>
+      </c>
+      <c r="K422" s="8">
+        <v>5543</v>
+      </c>
+      <c r="L422" s="8">
+        <v>1720</v>
+      </c>
+      <c r="M422" s="8">
+        <v>1920</v>
+      </c>
+      <c r="N422" s="8">
+        <v>1259</v>
+      </c>
+      <c r="O422" s="8">
+        <v>210</v>
+      </c>
+      <c r="P422" s="8">
+        <v>1121</v>
+      </c>
+      <c r="Q422" s="8">
+        <v>1381</v>
+      </c>
+      <c r="R422" s="8">
+        <v>1984</v>
+      </c>
+      <c r="S422" s="8">
+        <v>1858</v>
+      </c>
+      <c r="T422" s="8">
+        <v>392</v>
+      </c>
+      <c r="U422" s="8">
+        <v>30693</v>
       </c>
     </row>
   </sheetData>
